--- a/biology/Médecine/Îlot_de_Langerhans/Îlot_de_Langerhans.xlsx
+++ b/biology/Médecine/Îlot_de_Langerhans/Îlot_de_Langerhans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%8Elot_de_Langerhans</t>
+          <t>Îlot_de_Langerhans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules des îlots de Langerhans (ou îlots pancréatiques, insulae pancreaticae) sont des cellules endocrines (produisant des hormones) du pancréas regroupées en petits amas (ou îlots) disséminés entre les acini séreux (cavités arrondies débouchant sur le canal pancréatique).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%8Elot_de_Langerhans</t>
+          <t>Îlot_de_Langerhans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces îlots furent décrits en 1868 par le biologiste allemand Paul Langerhans (1847-1888). Ils furent nommés « îlots de Langerhans » en son honneur par Édouard Laguesse, par ailleurs créateur du mot « endocrine ».
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%8Elot_de_Langerhans</t>
+          <t>Îlot_de_Langerhans</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les îlots de Langerhans représentent environ 1 à 2 % de la masse du pancréas, soit 1 à 1,5 gramme. Un adulte possède entre 750 000 et 1 500 000 îlots, la plupart situés à l'arrière du pancréas. D'une taille comprise entre 50 et 900 µm, l'îlot est ainsi constitué de quelques cellules pour les plus petits îlots, et d'environ 5 000 cellules pour les plus grands.
 Les hormones produites par les îlots de Langerhans sont sécrétées directement dans la circulation sanguine par au moins quatre types de cellules :
